--- a/Whole_Catchment/data/morph_data.xlsx
+++ b/Whole_Catchment/data/morph_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -150,33 +150,6 @@
     <t>%</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>Tl</t>
   </si>
   <si>
@@ -198,22 +171,39 @@
     <t>мкг\кг</t>
   </si>
   <si>
-    <t>South</t>
+    <t>NV</t>
   </si>
   <si>
-    <t>North</t>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>WS</t>
+  </si>
+  <si>
+    <t>Mix</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -279,17 +269,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -570,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BP51"/>
+  <dimension ref="A1:BP61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AV19" sqref="AV19"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -655,7 +647,7 @@
         <v>26</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>28</v>
@@ -670,16 +662,16 @@
         <v>27</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>31</v>
@@ -700,7 +692,7 @@
         <v>35</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="AP1" s="1" t="s">
         <v>36</v>
@@ -715,7 +707,7 @@
         <v>39</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
@@ -772,7 +764,7 @@
         <v>40</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="V2" s="4" t="s">
         <v>40</v>
@@ -784,40 +776,40 @@
         <v>40</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="AB2" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="AD2" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="AE2" s="4" t="s">
         <v>40</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="AG2" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="AH2" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="AI2" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="AJ2" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="AK2" s="1" t="s">
         <v>42</v>
@@ -861,7 +853,7 @@
         <v>43.228030000384251</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E3">
         <v>4.1040000000000001</v>
@@ -956,7 +948,7 @@
         <v>43.227588999832513</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E4">
         <v>0.05</v>
@@ -1051,7 +1043,7 @@
         <v>43.228735999666704</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E5">
         <v>1.07</v>
@@ -1146,7 +1138,7 @@
         <v>43.229299000448577</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E6">
         <v>0.95</v>
@@ -1247,7 +1239,7 @@
         <v>43.229126999711298</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <v>3.26</v>
@@ -1339,7 +1331,7 @@
         <v>43.229760000123967</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E8">
         <v>0.24</v>
@@ -1422,7 +1414,7 @@
         <v>43.230735000120212</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E9">
         <v>4.62</v>
@@ -1526,7 +1518,7 @@
         <v>43.231610000001517</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E10">
         <v>14.27</v>
@@ -1624,7 +1616,7 @@
         <v>43.232109999676823</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E11">
         <v>8.3000000000000004E-2</v>
@@ -1713,7 +1705,7 @@
         <v>43.233797000131517</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E12">
         <v>1.26</v>
@@ -1808,7 +1800,7 @@
         <v>43.229892999962033</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E13">
         <v>0.37</v>
@@ -1891,7 +1883,7 @@
         <v>43.229780000146953</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E14">
         <v>0.125</v>
@@ -2001,7 +1993,7 @@
         <v>43.229155000103219</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E15">
         <v>0.26</v>
@@ -2105,7 +2097,7 @@
         <v>43.228182000199183</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>0.23</v>
@@ -2191,7 +2183,7 @@
         <v>43.227299262550957</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E17">
         <v>0.05</v>
@@ -2280,7 +2272,7 @@
         <v>43.226531999652138</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E18">
         <v>1.02</v>
@@ -2369,7 +2361,7 @@
         <v>43.229045000426481</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E19">
         <v>20.54</v>
@@ -2461,7 +2453,7 @@
         <v>43.229580999963218</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E20">
         <v>1.03</v>
@@ -2562,7 +2554,7 @@
         <v>43.220208</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F21">
         <v>6.73</v>
@@ -2604,11 +2596,11 @@
       <c r="AK21">
         <v>4</v>
       </c>
-      <c r="AM21" t="s">
-        <v>43</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>44</v>
+      <c r="AM21" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN21">
+        <v>0.5</v>
       </c>
       <c r="AO21" s="5"/>
       <c r="AP21">
@@ -2655,7 +2647,7 @@
         <v>43.220910000000003</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F22">
         <v>5.14</v>
@@ -2697,11 +2689,11 @@
       <c r="AK22">
         <v>6</v>
       </c>
-      <c r="AM22" t="s">
-        <v>45</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>43</v>
+      <c r="AM22" s="6">
+        <v>2</v>
+      </c>
+      <c r="AN22" s="6">
+        <v>1</v>
       </c>
       <c r="AO22" s="2"/>
       <c r="AP22">
@@ -2748,7 +2740,7 @@
         <v>43.220357999999898</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F23">
         <v>6.66</v>
@@ -2799,11 +2791,11 @@
       <c r="AK23">
         <v>5</v>
       </c>
-      <c r="AL23" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>43</v>
+      <c r="AL23" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM23" s="6">
+        <v>1</v>
       </c>
       <c r="AO23" s="2"/>
       <c r="AP23">
@@ -2850,7 +2842,7 @@
         <v>43.220919000000002</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F24">
         <v>1.36</v>
@@ -2891,11 +2883,11 @@
       <c r="AK24">
         <v>11</v>
       </c>
-      <c r="AL24" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>43</v>
+      <c r="AL24" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM24" s="6">
+        <v>1</v>
       </c>
       <c r="AP24">
         <v>61</v>
@@ -2918,7 +2910,7 @@
         <v>43.220782</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F25">
         <v>11.8</v>
@@ -2959,11 +2951,11 @@
       <c r="AK25">
         <v>12</v>
       </c>
-      <c r="AL25" t="s">
-        <v>44</v>
-      </c>
-      <c r="AM25" t="s">
-        <v>46</v>
+      <c r="AL25">
+        <v>0.5</v>
+      </c>
+      <c r="AM25" s="6">
+        <v>3</v>
       </c>
       <c r="AP25">
         <v>43</v>
@@ -2986,7 +2978,7 @@
         <v>43.220412000000003</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E26">
         <v>0.51</v>
@@ -3051,11 +3043,11 @@
       <c r="AK26">
         <v>9</v>
       </c>
-      <c r="AL26" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM26" t="s">
-        <v>43</v>
+      <c r="AL26" s="6">
+        <v>3</v>
+      </c>
+      <c r="AM26" s="6">
+        <v>1</v>
       </c>
       <c r="AP26">
         <v>45</v>
@@ -3078,7 +3070,7 @@
         <v>43.220792000000003</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F27">
         <v>5.57</v>
@@ -3122,14 +3114,14 @@
       <c r="AK27">
         <v>11</v>
       </c>
-      <c r="AL27" t="s">
-        <v>44</v>
-      </c>
-      <c r="AM27" t="s">
-        <v>45</v>
-      </c>
-      <c r="AN27" t="s">
-        <v>44</v>
+      <c r="AL27">
+        <v>0.5</v>
+      </c>
+      <c r="AM27" s="6">
+        <v>2</v>
+      </c>
+      <c r="AN27">
+        <v>0.5</v>
       </c>
       <c r="AP27">
         <v>40</v>
@@ -3152,7 +3144,7 @@
         <v>43.220773999999899</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E28">
         <v>0.59</v>
@@ -3202,11 +3194,11 @@
       <c r="AK28">
         <v>11</v>
       </c>
-      <c r="AL28" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM28" t="s">
-        <v>45</v>
+      <c r="AL28" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM28" s="6">
+        <v>2</v>
       </c>
       <c r="AP28">
         <v>46</v>
@@ -3229,7 +3221,7 @@
         <v>43.220382999999899</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E29">
         <v>0.21</v>
@@ -3282,8 +3274,8 @@
       <c r="AK29">
         <v>8</v>
       </c>
-      <c r="AM29" t="s">
-        <v>46</v>
+      <c r="AM29" s="6">
+        <v>3</v>
       </c>
       <c r="AP29">
         <v>65</v>
@@ -3306,7 +3298,7 @@
         <v>43.220460000000003</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F30">
         <v>6.49</v>
@@ -3350,8 +3342,8 @@
       <c r="AK30">
         <v>7</v>
       </c>
-      <c r="AM30" t="s">
-        <v>47</v>
+      <c r="AM30" s="6">
+        <v>8</v>
       </c>
       <c r="AP30">
         <v>50</v>
@@ -3374,7 +3366,7 @@
         <v>43.221048000000003</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F31">
         <v>2.23</v>
@@ -3418,14 +3410,14 @@
       <c r="AK31">
         <v>11</v>
       </c>
-      <c r="AL31" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM31" t="s">
-        <v>45</v>
-      </c>
-      <c r="AN31" t="s">
-        <v>44</v>
+      <c r="AL31" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM31" s="6">
+        <v>2</v>
+      </c>
+      <c r="AN31">
+        <v>0.5</v>
       </c>
       <c r="AP31">
         <v>55</v>
@@ -3448,7 +3440,7 @@
         <v>43.220308000000003</v>
       </c>
       <c r="D32" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F32">
         <v>7.18</v>
@@ -3496,14 +3488,14 @@
       <c r="AK32">
         <v>9</v>
       </c>
-      <c r="AL32" t="s">
-        <v>44</v>
-      </c>
-      <c r="AM32" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN32" t="s">
-        <v>43</v>
+      <c r="AL32">
+        <v>0.5</v>
+      </c>
+      <c r="AM32" s="6">
+        <v>5</v>
+      </c>
+      <c r="AN32" s="6">
+        <v>1</v>
       </c>
       <c r="AO32" s="3"/>
       <c r="AP32">
@@ -3515,8 +3507,8 @@
       <c r="AR32">
         <v>34</v>
       </c>
-      <c r="AS32" t="s">
-        <v>44</v>
+      <c r="AS32">
+        <v>0.5</v>
       </c>
     </row>
     <row r="33" spans="1:45" x14ac:dyDescent="0.3">
@@ -3530,7 +3522,7 @@
         <v>43.219876999999897</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E33">
         <v>1.31</v>
@@ -3590,8 +3582,8 @@
       <c r="AK33">
         <v>7</v>
       </c>
-      <c r="AM33" t="s">
-        <v>49</v>
+      <c r="AM33" s="6">
+        <v>10</v>
       </c>
       <c r="AO33" s="3"/>
       <c r="AP33">
@@ -3615,7 +3607,7 @@
         <v>43.2212719999999</v>
       </c>
       <c r="D34" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F34">
         <v>5.87</v>
@@ -3662,8 +3654,8 @@
       <c r="AK34">
         <v>14</v>
       </c>
-      <c r="AM34" t="s">
-        <v>50</v>
+      <c r="AM34" s="6">
+        <v>14</v>
       </c>
       <c r="AP34">
         <v>31</v>
@@ -3686,7 +3678,7 @@
         <v>43.220233999999898</v>
       </c>
       <c r="D35" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F35">
         <v>10.210000000000001</v>
@@ -3730,11 +3722,11 @@
       <c r="AK35">
         <v>3</v>
       </c>
-      <c r="AM35" t="s">
-        <v>47</v>
-      </c>
-      <c r="AN35" t="s">
-        <v>43</v>
+      <c r="AM35" s="6">
+        <v>8</v>
+      </c>
+      <c r="AN35" s="6">
+        <v>1</v>
       </c>
       <c r="AP35">
         <v>45</v>
@@ -3757,7 +3749,7 @@
         <v>43.220311000000002</v>
       </c>
       <c r="D36" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F36">
         <v>6.32</v>
@@ -3798,8 +3790,8 @@
       <c r="AK36">
         <v>6</v>
       </c>
-      <c r="AM36" t="s">
-        <v>45</v>
+      <c r="AM36" s="6">
+        <v>2</v>
       </c>
       <c r="AP36">
         <v>57</v>
@@ -3822,7 +3814,7 @@
         <v>43.219354000000003</v>
       </c>
       <c r="D37" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F37">
         <v>8.3800000000000008</v>
@@ -3857,11 +3849,11 @@
       <c r="AK37">
         <v>11</v>
       </c>
-      <c r="AM37" t="s">
-        <v>45</v>
-      </c>
-      <c r="AN37" t="s">
-        <v>44</v>
+      <c r="AM37" s="6">
+        <v>2</v>
+      </c>
+      <c r="AN37">
+        <v>0.5</v>
       </c>
       <c r="AP37">
         <v>32</v>
@@ -3884,7 +3876,7 @@
         <v>43.218505</v>
       </c>
       <c r="D38" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E38">
         <v>0.56000000000000005</v>
@@ -3934,11 +3926,11 @@
       <c r="AK38">
         <v>9</v>
       </c>
-      <c r="AM38" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN38" t="s">
-        <v>43</v>
+      <c r="AM38" s="6">
+        <v>3</v>
+      </c>
+      <c r="AN38" s="6">
+        <v>1</v>
       </c>
       <c r="AP38">
         <v>50</v>
@@ -3961,7 +3953,7 @@
         <v>43.2175879999999</v>
       </c>
       <c r="D39" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E39">
         <v>1.1200000000000001</v>
@@ -4014,11 +4006,11 @@
       <c r="AK39">
         <v>5</v>
       </c>
-      <c r="AM39" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN39" t="s">
-        <v>44</v>
+      <c r="AM39">
+        <v>0.5</v>
+      </c>
+      <c r="AN39">
+        <v>0.5</v>
       </c>
       <c r="AP39">
         <v>63</v>
@@ -4041,7 +4033,7 @@
         <v>43.21978</v>
       </c>
       <c r="D40" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F40">
         <v>5.55</v>
@@ -4088,14 +4080,14 @@
       <c r="AK40">
         <v>6</v>
       </c>
-      <c r="AL40" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM40" t="s">
-        <v>43</v>
-      </c>
-      <c r="AN40" t="s">
-        <v>43</v>
+      <c r="AL40" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM40" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN40" s="6">
+        <v>1</v>
       </c>
       <c r="AP40">
         <v>59</v>
@@ -4118,7 +4110,7 @@
         <v>43.216532999999899</v>
       </c>
       <c r="D41" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E41">
         <v>0.5</v>
@@ -4168,8 +4160,8 @@
       <c r="AK41">
         <v>10</v>
       </c>
-      <c r="AM41" t="s">
-        <v>46</v>
+      <c r="AM41" s="6">
+        <v>3</v>
       </c>
       <c r="AP41">
         <v>56</v>
@@ -4192,7 +4184,7 @@
         <v>43.215865000000001</v>
       </c>
       <c r="D42" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E42">
         <v>0.35</v>
@@ -4242,8 +4234,8 @@
       <c r="AK42">
         <v>9</v>
       </c>
-      <c r="AM42" t="s">
-        <v>45</v>
+      <c r="AM42" s="6">
+        <v>2</v>
       </c>
       <c r="AP42">
         <v>46</v>
@@ -4266,7 +4258,7 @@
         <v>43.218026000000002</v>
       </c>
       <c r="D43" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E43">
         <v>0.38</v>
@@ -4316,8 +4308,8 @@
       <c r="AK43">
         <v>3</v>
       </c>
-      <c r="AM43" t="s">
-        <v>43</v>
+      <c r="AM43" s="6">
+        <v>1</v>
       </c>
       <c r="AP43">
         <v>69</v>
@@ -4340,7 +4332,7 @@
         <v>43.217697000000001</v>
       </c>
       <c r="D44" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E44">
         <v>0.69</v>
@@ -4384,8 +4376,8 @@
       <c r="AK44">
         <v>23</v>
       </c>
-      <c r="AM44" t="s">
-        <v>51</v>
+      <c r="AM44" s="6">
+        <v>4</v>
       </c>
       <c r="AP44">
         <v>51</v>
@@ -4408,7 +4400,7 @@
         <v>43.2182859999999</v>
       </c>
       <c r="D45" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E45">
         <v>0.52</v>
@@ -4452,8 +4444,8 @@
       <c r="AK45">
         <v>20</v>
       </c>
-      <c r="AM45" t="s">
-        <v>46</v>
+      <c r="AM45" s="6">
+        <v>3</v>
       </c>
       <c r="AP45">
         <v>43</v>
@@ -4476,7 +4468,7 @@
         <v>43.218822000000003</v>
       </c>
       <c r="D46" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E46">
         <v>0.46</v>
@@ -4526,8 +4518,8 @@
       <c r="AK46">
         <v>6</v>
       </c>
-      <c r="AM46" t="s">
-        <v>51</v>
+      <c r="AM46" s="6">
+        <v>4</v>
       </c>
       <c r="AP46">
         <v>59</v>
@@ -4550,7 +4542,7 @@
         <v>43.217169552100003</v>
       </c>
       <c r="D47" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F47">
         <v>8.48</v>
@@ -4600,11 +4592,11 @@
       <c r="AK47">
         <v>6</v>
       </c>
-      <c r="AM47" t="s">
-        <v>45</v>
-      </c>
-      <c r="AN47" t="s">
-        <v>46</v>
+      <c r="AM47" s="6">
+        <v>2</v>
+      </c>
+      <c r="AN47" s="6">
+        <v>3</v>
       </c>
       <c r="AP47">
         <v>63</v>
@@ -4630,7 +4622,7 @@
         <v>43.219298332500003</v>
       </c>
       <c r="D48" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E48">
         <v>1.02</v>
@@ -4674,11 +4666,11 @@
       <c r="AK48">
         <v>5</v>
       </c>
-      <c r="AM48" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN48" t="s">
-        <v>43</v>
+      <c r="AM48" s="6">
+        <v>5</v>
+      </c>
+      <c r="AN48" s="6">
+        <v>1</v>
       </c>
       <c r="AP48">
         <v>48</v>
@@ -4701,7 +4693,7 @@
         <v>43.218566000120859</v>
       </c>
       <c r="D49" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E49" s="5">
         <v>0.87</v>
@@ -4792,7 +4784,7 @@
         <v>43.21873199968212</v>
       </c>
       <c r="D50" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E50" s="5">
         <v>10.69</v>
@@ -4875,96 +4867,1092 @@
       </c>
     </row>
     <row r="51" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A51" s="5">
+      <c r="A51" s="8">
         <v>2021</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="8">
         <v>42.489012000203672</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="8">
         <v>43.219430000394247</v>
       </c>
-      <c r="D51" t="s">
-        <v>59</v>
-      </c>
-      <c r="E51" s="5">
+      <c r="D51" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" s="8">
         <v>6.5</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F51" s="8">
         <v>74.56</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G51" s="8">
         <v>415.3</v>
       </c>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5">
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8">
         <v>81.739999999999995</v>
       </c>
-      <c r="L51" s="5">
+      <c r="L51" s="8">
         <v>12.05</v>
       </c>
-      <c r="M51" s="5">
+      <c r="M51" s="8">
         <v>1.96</v>
       </c>
-      <c r="N51" s="5">
+      <c r="N51" s="8">
         <v>0.16500000000000001</v>
       </c>
-      <c r="O51" s="5">
+      <c r="O51" s="8">
         <v>0.43</v>
       </c>
-      <c r="P51" s="5">
+      <c r="P51" s="8">
         <v>19.47</v>
       </c>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5">
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8">
         <v>0.16</v>
       </c>
-      <c r="T51" s="5">
+      <c r="T51" s="8">
         <v>0.22</v>
       </c>
-      <c r="U51" s="5">
+      <c r="U51" s="8">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="V51" s="5">
+      <c r="V51" s="8">
         <v>0.61</v>
       </c>
-      <c r="W51" s="5">
+      <c r="W51" s="8">
         <v>3.23</v>
       </c>
-      <c r="X51" s="5">
+      <c r="X51" s="8">
         <v>0.68</v>
       </c>
-      <c r="Y51" s="5"/>
-      <c r="AA51" s="5"/>
-      <c r="AF51" s="5"/>
-      <c r="AI51" s="5"/>
-      <c r="AJ51" s="5"/>
-      <c r="AK51" s="5">
+      <c r="Y51" s="8"/>
+      <c r="Z51" s="8"/>
+      <c r="AA51" s="8"/>
+      <c r="AB51" s="8"/>
+      <c r="AC51" s="8"/>
+      <c r="AD51" s="8"/>
+      <c r="AE51" s="8"/>
+      <c r="AF51" s="8"/>
+      <c r="AG51" s="8"/>
+      <c r="AH51" s="8"/>
+      <c r="AI51" s="8"/>
+      <c r="AJ51" s="8"/>
+      <c r="AK51" s="8">
         <v>17</v>
       </c>
-      <c r="AL51" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM51" s="5">
+      <c r="AL51" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM51" s="8">
         <v>1</v>
       </c>
-      <c r="AN51" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP51" s="5">
+      <c r="AN51" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO51" s="8"/>
+      <c r="AP51" s="8">
         <v>58</v>
       </c>
-      <c r="AQ51" s="5">
+      <c r="AQ51" s="8">
         <v>9</v>
       </c>
-      <c r="AR51" s="5">
+      <c r="AR51" s="8">
         <v>15</v>
       </c>
-      <c r="AS51" s="5">
-        <v>0</v>
+      <c r="AS51" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A52" s="8">
+        <v>3001</v>
+      </c>
+      <c r="B52" s="8">
+        <v>42.493332000000002</v>
+      </c>
+      <c r="C52" s="8">
+        <v>43.225065000000001</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52" s="8">
+        <v>0.69</v>
+      </c>
+      <c r="F52" s="8">
+        <v>7.49</v>
+      </c>
+      <c r="G52" s="8">
+        <v>173.5</v>
+      </c>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8">
+        <v>3.55</v>
+      </c>
+      <c r="L52" s="8">
+        <v>0.74</v>
+      </c>
+      <c r="M52" s="8">
+        <v>1.55</v>
+      </c>
+      <c r="N52" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="O52" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="P52" s="8">
+        <v>9.06</v>
+      </c>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="W52" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="X52" s="8">
+        <v>0.39</v>
+      </c>
+      <c r="Y52" s="8"/>
+      <c r="Z52" s="8"/>
+      <c r="AA52" s="8"/>
+      <c r="AB52" s="8"/>
+      <c r="AC52" s="8"/>
+      <c r="AD52" s="8"/>
+      <c r="AE52" s="8"/>
+      <c r="AF52" s="8"/>
+      <c r="AG52" s="8"/>
+      <c r="AH52" s="8"/>
+      <c r="AI52" s="8"/>
+      <c r="AJ52" s="8"/>
+      <c r="AK52" s="8">
+        <v>11</v>
+      </c>
+      <c r="AL52" s="8"/>
+      <c r="AM52" s="9">
+        <v>8</v>
+      </c>
+      <c r="AN52" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO52" s="8"/>
+      <c r="AP52" s="8">
+        <v>55</v>
+      </c>
+      <c r="AQ52" s="8">
+        <v>9</v>
+      </c>
+      <c r="AR52" s="8">
+        <v>15</v>
+      </c>
+      <c r="AS52" s="8"/>
+    </row>
+    <row r="53" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A53" s="8">
+        <v>3002</v>
+      </c>
+      <c r="B53" s="8">
+        <v>42.491751999999899</v>
+      </c>
+      <c r="C53" s="8">
+        <v>43.224445000000003</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E53" s="8">
+        <v>0.33</v>
+      </c>
+      <c r="F53" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="G53" s="8">
+        <v>114.2</v>
+      </c>
+      <c r="H53" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I53" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="J53" s="8">
+        <v>0.18</v>
+      </c>
+      <c r="K53" s="8">
+        <v>2.64</v>
+      </c>
+      <c r="L53" s="8">
+        <v>0.72</v>
+      </c>
+      <c r="M53" s="8">
+        <v>0.66</v>
+      </c>
+      <c r="N53" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="O53" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="P53" s="8">
+        <v>6.35</v>
+      </c>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="T53" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="U53" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="V53" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="W53" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="X53" s="8">
+        <v>0.27</v>
+      </c>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="8"/>
+      <c r="AA53" s="8"/>
+      <c r="AB53" s="8"/>
+      <c r="AC53" s="8"/>
+      <c r="AD53" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="AE53" s="8"/>
+      <c r="AF53" s="8"/>
+      <c r="AG53" s="8"/>
+      <c r="AH53" s="8"/>
+      <c r="AI53" s="8"/>
+      <c r="AJ53" s="8"/>
+      <c r="AK53" s="8">
+        <v>8</v>
+      </c>
+      <c r="AL53" s="8"/>
+      <c r="AM53" s="9">
+        <v>4</v>
+      </c>
+      <c r="AN53" s="8"/>
+      <c r="AO53" s="8"/>
+      <c r="AP53" s="8">
+        <v>66</v>
+      </c>
+      <c r="AQ53" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR53" s="8">
+        <v>20</v>
+      </c>
+      <c r="AS53" s="8"/>
+    </row>
+    <row r="54" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A54" s="8">
+        <v>3003</v>
+      </c>
+      <c r="B54" s="8">
+        <v>42.490695000000002</v>
+      </c>
+      <c r="C54" s="8">
+        <v>43.224632999999898</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54" s="8">
+        <v>0.42</v>
+      </c>
+      <c r="F54" s="8">
+        <v>4.51</v>
+      </c>
+      <c r="G54" s="8">
+        <v>125.3</v>
+      </c>
+      <c r="H54" s="8">
+        <v>0.24</v>
+      </c>
+      <c r="I54" s="8">
+        <v>0.87</v>
+      </c>
+      <c r="J54" s="8">
+        <v>0.38</v>
+      </c>
+      <c r="K54" s="8">
+        <v>2.84</v>
+      </c>
+      <c r="L54" s="8">
+        <v>3.02</v>
+      </c>
+      <c r="M54" s="8">
+        <v>0.37</v>
+      </c>
+      <c r="N54" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="O54" s="8">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="P54" s="8">
+        <v>3.72</v>
+      </c>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="T54" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="U54" s="8"/>
+      <c r="V54" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="W54" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="X54" s="8"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="8"/>
+      <c r="AA54" s="8"/>
+      <c r="AB54" s="8"/>
+      <c r="AC54" s="8"/>
+      <c r="AD54" s="8">
+        <v>0.34</v>
+      </c>
+      <c r="AE54" s="8"/>
+      <c r="AF54" s="8"/>
+      <c r="AG54" s="8"/>
+      <c r="AH54" s="8"/>
+      <c r="AI54" s="8"/>
+      <c r="AJ54" s="8"/>
+      <c r="AK54" s="8">
+        <v>15</v>
+      </c>
+      <c r="AL54" s="8">
+        <v>1</v>
+      </c>
+      <c r="AM54" s="9">
+        <v>5</v>
+      </c>
+      <c r="AN54" s="8"/>
+      <c r="AO54" s="8"/>
+      <c r="AP54" s="8">
+        <v>52</v>
+      </c>
+      <c r="AQ54" s="8">
+        <v>5</v>
+      </c>
+      <c r="AR54" s="8">
+        <v>19</v>
+      </c>
+      <c r="AS54" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A55" s="8">
+        <v>3004</v>
+      </c>
+      <c r="B55" s="8">
+        <v>42.490015</v>
+      </c>
+      <c r="C55" s="8">
+        <v>43.224711999999897</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E55" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="F55" s="8">
+        <v>1.52</v>
+      </c>
+      <c r="G55" s="8">
+        <v>298</v>
+      </c>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8">
+        <v>0.86</v>
+      </c>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="L55" s="8">
+        <v>1.72</v>
+      </c>
+      <c r="M55" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N55" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="O55" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="P55" s="8">
+        <v>4.12</v>
+      </c>
+      <c r="Q55" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="R55" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="S55" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="T55" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="U55" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="V55" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="W55" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="X55" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="Y55" s="8">
+        <v>0.41</v>
+      </c>
+      <c r="Z55" s="8"/>
+      <c r="AA55" s="8"/>
+      <c r="AB55" s="8"/>
+      <c r="AC55" s="8"/>
+      <c r="AD55" s="8">
+        <v>0.41</v>
+      </c>
+      <c r="AE55" s="8"/>
+      <c r="AF55" s="8"/>
+      <c r="AG55" s="8"/>
+      <c r="AH55" s="8"/>
+      <c r="AI55" s="8"/>
+      <c r="AJ55" s="8"/>
+      <c r="AK55" s="8">
+        <v>17</v>
+      </c>
+      <c r="AL55" s="8"/>
+      <c r="AM55" s="9">
+        <v>1</v>
+      </c>
+      <c r="AN55" s="9">
+        <v>2</v>
+      </c>
+      <c r="AO55" s="8"/>
+      <c r="AP55" s="8">
+        <v>56</v>
+      </c>
+      <c r="AQ55" s="8">
+        <v>6</v>
+      </c>
+      <c r="AR55" s="8">
+        <v>17</v>
+      </c>
+      <c r="AS55" s="8"/>
+    </row>
+    <row r="56" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A56" s="8">
+        <v>3005</v>
+      </c>
+      <c r="B56" s="8">
+        <v>42.488481</v>
+      </c>
+      <c r="C56" s="8">
+        <v>43.225448999999898</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E56" s="8">
+        <v>0.43</v>
+      </c>
+      <c r="F56" s="8">
+        <v>6.66</v>
+      </c>
+      <c r="G56" s="8">
+        <v>219.7</v>
+      </c>
+      <c r="H56" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="I56" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="J56" s="8">
+        <v>0.34</v>
+      </c>
+      <c r="K56" s="8">
+        <v>5.21</v>
+      </c>
+      <c r="L56" s="8">
+        <v>1.75</v>
+      </c>
+      <c r="M56" s="8">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="N56" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="O56" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="P56" s="8">
+        <v>6.72</v>
+      </c>
+      <c r="Q56" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R56" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="S56" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="T56" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="U56" s="8"/>
+      <c r="V56" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="W56" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="X56" s="8"/>
+      <c r="Y56" s="8"/>
+      <c r="Z56" s="8"/>
+      <c r="AA56" s="8"/>
+      <c r="AB56" s="8"/>
+      <c r="AC56" s="8"/>
+      <c r="AD56" s="8"/>
+      <c r="AE56" s="8"/>
+      <c r="AF56" s="8"/>
+      <c r="AG56" s="8"/>
+      <c r="AH56" s="8"/>
+      <c r="AI56" s="8"/>
+      <c r="AJ56" s="8"/>
+      <c r="AK56" s="8">
+        <v>12</v>
+      </c>
+      <c r="AL56" s="8"/>
+      <c r="AM56" s="9">
+        <v>1</v>
+      </c>
+      <c r="AN56" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AO56" s="8"/>
+      <c r="AP56" s="8">
+        <v>61</v>
+      </c>
+      <c r="AQ56" s="8">
+        <v>6</v>
+      </c>
+      <c r="AR56" s="8">
+        <v>19</v>
+      </c>
+      <c r="AS56" s="8"/>
+    </row>
+    <row r="57" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A57" s="8">
+        <v>4001</v>
+      </c>
+      <c r="B57" s="8">
+        <v>42.488796000000001</v>
+      </c>
+      <c r="C57" s="8">
+        <v>43.223865000000004</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E57" s="8">
+        <v>1.51</v>
+      </c>
+      <c r="F57" s="8">
+        <v>7.41</v>
+      </c>
+      <c r="G57" s="8">
+        <v>311.89999999999998</v>
+      </c>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8">
+        <v>7.74</v>
+      </c>
+      <c r="L57" s="8">
+        <v>0.86</v>
+      </c>
+      <c r="M57" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="N57" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="O57" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="P57" s="8">
+        <v>5.59</v>
+      </c>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="T57" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="U57" s="8"/>
+      <c r="V57" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="W57" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="X57" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="Y57" s="8"/>
+      <c r="Z57" s="8"/>
+      <c r="AA57" s="8"/>
+      <c r="AB57" s="8"/>
+      <c r="AC57" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="AD57" s="8"/>
+      <c r="AE57" s="8"/>
+      <c r="AF57" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="AG57" s="8"/>
+      <c r="AH57" s="8"/>
+      <c r="AI57" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="AJ57" s="8"/>
+      <c r="AK57" s="8">
+        <v>12</v>
+      </c>
+      <c r="AL57" s="8"/>
+      <c r="AM57" s="9">
+        <v>4</v>
+      </c>
+      <c r="AN57" s="9">
+        <v>2</v>
+      </c>
+      <c r="AO57" s="8"/>
+      <c r="AP57" s="8">
+        <v>51</v>
+      </c>
+      <c r="AQ57" s="8">
+        <v>7</v>
+      </c>
+      <c r="AR57" s="8">
+        <v>21</v>
+      </c>
+      <c r="AS57" s="8"/>
+    </row>
+    <row r="58" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A58" s="8">
+        <v>4002</v>
+      </c>
+      <c r="B58" s="8">
+        <v>42.488534000000001</v>
+      </c>
+      <c r="C58" s="8">
+        <v>43.223379999999899</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E58" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="F58" s="8">
+        <v>6.41</v>
+      </c>
+      <c r="G58" s="8">
+        <v>206.9</v>
+      </c>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8">
+        <v>0.46</v>
+      </c>
+      <c r="J58" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="K58" s="8">
+        <v>5.7</v>
+      </c>
+      <c r="L58" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="M58" s="8">
+        <v>1.04</v>
+      </c>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8">
+        <v>0.26</v>
+      </c>
+      <c r="P58" s="8">
+        <v>10.29</v>
+      </c>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
+      <c r="S58" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="T58" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U58" s="8"/>
+      <c r="V58" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="W58" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="X58" s="8"/>
+      <c r="Y58" s="8"/>
+      <c r="Z58" s="8"/>
+      <c r="AA58" s="8"/>
+      <c r="AB58" s="8"/>
+      <c r="AC58" s="8"/>
+      <c r="AD58" s="8"/>
+      <c r="AE58" s="8"/>
+      <c r="AF58" s="8"/>
+      <c r="AG58" s="8"/>
+      <c r="AH58" s="8"/>
+      <c r="AI58" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="AJ58" s="8"/>
+      <c r="AK58" s="8">
+        <v>20</v>
+      </c>
+      <c r="AL58" s="8"/>
+      <c r="AM58" s="9">
+        <v>6</v>
+      </c>
+      <c r="AN58" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO58" s="8"/>
+      <c r="AP58" s="8">
+        <v>50</v>
+      </c>
+      <c r="AQ58" s="8">
+        <v>10</v>
+      </c>
+      <c r="AR58" s="8">
+        <v>13</v>
+      </c>
+      <c r="AS58" s="8"/>
+    </row>
+    <row r="59" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A59" s="8">
+        <v>4003</v>
+      </c>
+      <c r="B59" s="8">
+        <v>42.488343</v>
+      </c>
+      <c r="C59" s="8">
+        <v>43.223039999999898</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E59" s="8">
+        <v>0.19</v>
+      </c>
+      <c r="F59" s="8">
+        <v>6.92</v>
+      </c>
+      <c r="G59" s="8">
+        <v>193.8</v>
+      </c>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="L59" s="8">
+        <v>2.11</v>
+      </c>
+      <c r="M59" s="8">
+        <v>1.18</v>
+      </c>
+      <c r="N59" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="O59" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="P59" s="8">
+        <v>11.29</v>
+      </c>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="U59" s="8"/>
+      <c r="V59" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W59" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="X59" s="8"/>
+      <c r="Y59" s="8"/>
+      <c r="Z59" s="8"/>
+      <c r="AA59" s="8"/>
+      <c r="AB59" s="8"/>
+      <c r="AC59" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="AD59" s="8"/>
+      <c r="AE59" s="8"/>
+      <c r="AF59" s="8"/>
+      <c r="AG59" s="8"/>
+      <c r="AH59" s="8"/>
+      <c r="AI59" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AJ59" s="8"/>
+      <c r="AK59" s="8">
+        <v>24</v>
+      </c>
+      <c r="AL59" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM59" s="9">
+        <v>1</v>
+      </c>
+      <c r="AN59" s="9">
+        <v>2</v>
+      </c>
+      <c r="AO59" s="8"/>
+      <c r="AP59" s="8">
+        <v>55</v>
+      </c>
+      <c r="AQ59" s="8">
+        <v>4</v>
+      </c>
+      <c r="AR59" s="8">
+        <v>12</v>
+      </c>
+      <c r="AS59" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A60" s="8">
+        <v>4004</v>
+      </c>
+      <c r="B60" s="8">
+        <v>42.488903999999899</v>
+      </c>
+      <c r="C60" s="8">
+        <v>43.221727999999899</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E60" s="8">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="F60" s="8">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="G60" s="8">
+        <v>184.3</v>
+      </c>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8">
+        <v>3.31</v>
+      </c>
+      <c r="L60" s="8">
+        <v>1.94</v>
+      </c>
+      <c r="M60" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="P60" s="8">
+        <v>2.31</v>
+      </c>
+      <c r="Q60" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="R60" s="8"/>
+      <c r="S60" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="T60" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="U60" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="V60" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="W60" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="X60" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y60" s="8"/>
+      <c r="Z60" s="8"/>
+      <c r="AA60" s="8"/>
+      <c r="AB60" s="8"/>
+      <c r="AC60" s="8"/>
+      <c r="AD60" s="8"/>
+      <c r="AE60" s="8"/>
+      <c r="AF60" s="8">
+        <v>0.19</v>
+      </c>
+      <c r="AG60" s="8"/>
+      <c r="AH60" s="8"/>
+      <c r="AI60" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="AJ60" s="8"/>
+      <c r="AK60" s="8">
+        <v>19</v>
+      </c>
+      <c r="AL60" s="9">
+        <v>2</v>
+      </c>
+      <c r="AM60" s="9">
+        <v>6</v>
+      </c>
+      <c r="AN60" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO60" s="8"/>
+      <c r="AP60" s="8">
+        <v>52</v>
+      </c>
+      <c r="AQ60" s="8">
+        <v>4</v>
+      </c>
+      <c r="AR60" s="8">
+        <v>15</v>
+      </c>
+      <c r="AS60" s="8"/>
+    </row>
+    <row r="61" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>666</v>
+      </c>
+      <c r="B61" s="2">
+        <v>42.489991000000003</v>
+      </c>
+      <c r="C61" s="2">
+        <v>43.22139</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2">
+        <v>5.09</v>
+      </c>
+      <c r="G61" s="2">
+        <v>424.8</v>
+      </c>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2">
+        <v>7.45</v>
+      </c>
+      <c r="L61" s="2">
+        <v>2.57</v>
+      </c>
+      <c r="M61" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="P61" s="2">
+        <v>3.19</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="U61" s="2"/>
+      <c r="V61" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="W61" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="AD61" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="AK61" s="2">
+        <v>15</v>
+      </c>
+      <c r="AL61" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM61" s="2">
+        <v>2</v>
+      </c>
+      <c r="AN61" s="2"/>
+      <c r="AP61" s="2">
+        <v>50</v>
+      </c>
+      <c r="AQ61" s="2">
+        <v>13</v>
+      </c>
+      <c r="AR61" s="2">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
